--- a/Draft 3.xlsx
+++ b/Draft 3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Title:</t>
   </si>
@@ -103,13 +103,18 @@
 Who went on the bus with you?</t>
   </si>
   <si>
-    <t>﻿﻿媽媽 maa4 maa1 Mom
+    <t>媽媽 maa4 maa1 Mom
 爸爸 baa4 baa1 Dad
-﻿婆婆 po4 po2 Grandma
-﻿爺爺 je4 je2 Grandpa</t>
+婆婆 po4 po2 Grandma
+爺爺 je4 je2 Grandpa</t>
   </si>
   <si>
     <t>32.87</t>
+  </si>
+  <si>
+    <t>邊個同你搭巴士?
+bin1 go3 tung4 nei5 daap3 baa1 si2?
+Who went on the bus with you?</t>
   </si>
   <si>
     <t>47</t>
@@ -154,7 +159,9 @@
     <t>Drag and Drop</t>
   </si>
   <si>
-    <t>拖放：佢哋以乜嘢次序上巴士？to1 fong3: keoi5 dei6 ji5 mat1 je5 ci3 zeoi6 soeng5 baa1 si2? Drag and Drop: In what order did these people get on the bus?</t>
+    <t>拖放：佢哋以乜嘢次序上巴士？
+to1 fong3: keoi5 dei6 ji5 mat1 je5 ci3 zeoi6 soeng5 baa1 si2? 
+Drag and Drop: In what order did these people get on the bus?</t>
   </si>
   <si>
     <t xml:space="preserve">第一 dai6 jat1 First
@@ -189,6 +196,11 @@
     <t>婆婆
 po4 po2
 Grandma</t>
+  </si>
+  <si>
+    <t>拖放：佢哋以乜嘢次序上巴士?
+to1 fong3: keoi5 dei6 ji5 mat1 je5 ci3 zeoi6 soeng5 baa1 si2? 
+Drag and Drop: In what order did these people get on the bus?</t>
   </si>
   <si>
     <t>第一 dai6 jat1 First
@@ -273,10 +285,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0_ &quot;s&quot;"/>
     <numFmt numFmtId="177" formatCode="h:mm"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -333,17 +345,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -365,18 +376,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -402,9 +413,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,16 +428,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,21 +437,30 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,187 +497,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,11 +730,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -738,6 +756,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -749,30 +785,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -796,88 +808,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -889,52 +901,52 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1334,7 +1346,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E5" sqref="E5"/>
+      <selection pane="topRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4"/>
@@ -1516,7 +1528,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>24</v>
@@ -1539,24 +1551,24 @@
     </row>
     <row r="8" ht="86.4" spans="1:27">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="10">
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
@@ -1580,24 +1592,24 @@
     </row>
     <row r="9" ht="129.6" spans="1:27">
       <c r="A9" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="10">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
@@ -1621,40 +1633,40 @@
     </row>
     <row r="10" ht="86.4" spans="1:27">
       <c r="A10" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N10" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P10" s="16"/>
       <c r="Q10" s="16"/>
@@ -1669,30 +1681,30 @@
       <c r="Z10" s="15"/>
       <c r="AA10" s="15"/>
     </row>
-    <row r="11" ht="100.8" spans="1:27">
+    <row r="11" ht="86.4" spans="1:27">
       <c r="A11" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="10">
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
@@ -1711,24 +1723,24 @@
       <c r="Z11" s="15"/>
       <c r="AA11" s="15"/>
     </row>
-    <row r="12" s="3" customFormat="1" ht="86.4" spans="1:27">
+    <row r="12" s="3" customFormat="1" ht="115.2" spans="1:27">
       <c r="A12" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12" s="14">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="16"/>
@@ -1752,22 +1764,22 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="144" spans="1:27">
       <c r="A13" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B13" s="14">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="16"/>
@@ -1791,16 +1803,16 @@
     </row>
     <row r="14" s="3" customFormat="1" ht="129.6" spans="1:27">
       <c r="A14" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="14">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="16"/>
